--- a/biology/Zoologie/Eremias_przewalskii/Eremias_przewalskii.xlsx
+++ b/biology/Zoologie/Eremias_przewalskii/Eremias_przewalskii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eremias przewalskii est une espèce de sauriens de la famille des Lacertidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eremias przewalskii est une espèce de sauriens de la famille des Lacertidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 en Mongolie ;
 au Russie au Tuva ;
 en Chine en Mongolie-Intérieure, au Qinghai et au Xinjiang ;
@@ -545,9 +559,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (14 janvier 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (14 janvier 2013) :
 Eremias przewalskii przewalskii (Strauch, 1876)
 Eremias przewalskii tuvensis Szczerbak, 1970</t>
         </is>
@@ -577,9 +593,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Nikolaï Mikhaïlovitch Prjevalski[1] et la sous-espèce, composé de tuv[a] et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, le Tuva.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Nikolaï Mikhaïlovitch Prjevalski et la sous-espèce, composé de tuv[a] et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, le Tuva.
 </t>
         </is>
       </c>
@@ -608,7 +626,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Prjevalski, 1876 : Mongoliya i Strana Tangutov. Tryokhletneye puteshestviye v Vostochnoj Nagoruoj Asii. Société géographique impériale de Russie.
 Szczerbak, 1970 : New subspecies Eremias przewalskii tuvensis sp. n. (Sauria, Reptilia) from the Tuva Autonomous Soviet Specialist Republic and data on the species systematics as a whole. Vestnik Zoologii, vol. 1970, n. 3, p. 31-36.</t>
